--- a/data/evaluation/evaluation_Center_Winter_Kohlrabi.xlsx
+++ b/data/evaluation/evaluation_Center_Winter_Kohlrabi.xlsx
@@ -486,16 +486,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1234.423076923077</v>
+        <v>1309.807692307692</v>
       </c>
       <c r="C3" t="n">
-        <v>2994692.795138889</v>
+        <v>3266454.333600427</v>
       </c>
       <c r="D3" t="n">
-        <v>1730.518071312429</v>
+        <v>1807.333487102042</v>
       </c>
       <c r="E3" t="n">
-        <v>0.3350797960103031</v>
+        <v>0.2747398045815599</v>
       </c>
     </row>
     <row r="4">
@@ -505,16 +505,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1150.057135780886</v>
+        <v>1239.361428710178</v>
       </c>
       <c r="C4" t="n">
-        <v>2612965.539210874</v>
+        <v>2924983.980102468</v>
       </c>
       <c r="D4" t="n">
-        <v>1616.466992923417</v>
+        <v>1710.258454182428</v>
       </c>
       <c r="E4" t="n">
-        <v>0.4198357901116316</v>
+        <v>0.350557443530321</v>
       </c>
     </row>
     <row r="5">
